--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\Etk-Github\Demos\Etk.Demo.ExcelDna1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="7" r:id="rId1"/>
+    <sheet name="Templates" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="DEC_DONE">#REF!</definedName>
@@ -18,14 +24,100 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+  <si>
+    <t>&lt;Template Name='Main' BindingWith='Shop'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Header&gt;</t>
+  </si>
+  <si>
+    <t>Shops</t>
+  </si>
+  <si>
+    <t>&lt;/Header&gt;</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Reception Phone Number</t>
+  </si>
+  <si>
+    <t>{Name}</t>
+  </si>
+  <si>
+    <t>{{{Address} {City}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {Phone}</t>
+  </si>
+  <si>
+    <t>&lt;Link To='CustomersMain' With='Customers'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='Main'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='CustomersMain' BindingWith='Customer' /&gt;</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Forename</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>{Id}</t>
+  </si>
+  <si>
+    <t>{Forename}</t>
+  </si>
+  <si>
+    <t>{Surname}</t>
+  </si>
+  <si>
+    <t>{{{Forename} {Surname}}}</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='CustomersMain'/&gt;</t>
+  </si>
+  <si>
+    <t>{F={{{Id} + 5}}:IdPlus5}</t>
+  </si>
+  <si>
+    <t>{F=:IdPlus}</t>
+  </si>
+  <si>
+    <t>{IdPlus}</t>
+  </si>
+  <si>
+    <t>{IdPlus5}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +174,15 @@
       <name val="NewsGoth Lt BT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +195,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,24 +312,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -301,15 +463,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="102">
     <cellStyle name="Comma 2" xfId="4"/>
@@ -423,6 +608,14 @@
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -681,22 +874,181 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="30.42578125" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\Etk-Github\Demos\Etk.Demo.ExcelDna1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\ETK-Git\Demos\Etk.Demo.ExcelDna1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
+    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="7" r:id="rId1"/>
-    <sheet name="Templates" sheetId="8" r:id="rId2"/>
+    <sheet name="Shops" sheetId="7" r:id="rId1"/>
+    <sheet name="Shares" sheetId="9" r:id="rId2"/>
+    <sheet name="TemplatesShops" sheetId="8" r:id="rId3"/>
+    <sheet name="TemplatesShares" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="DEC_DONE">#REF!</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>&lt;Template Name='Main' BindingWith='Shop'/&gt;</t>
   </si>
@@ -96,28 +98,91 @@
     <t>&lt;EndTemplate Name='CustomersMain'/&gt;</t>
   </si>
   <si>
-    <t>{F={{{Id} + 5}}:IdPlus5}</t>
-  </si>
-  <si>
-    <t>{F=:IdPlus}</t>
-  </si>
-  <si>
     <t>{IdPlus}</t>
   </si>
   <si>
     <t>{IdPlus5}</t>
+  </si>
+  <si>
+    <t>{F=::IdPlus}</t>
+  </si>
+  <si>
+    <t>{F={{{Id} + 5}}::IdPlus5}</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>&lt;Button Label='{CommandRunningLabel}' Command='StartStopChanging' W='30' H='25'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Button Label='Start' Command='StartChanging' EnableProp=',,IsNotRunning' W='30' H='25'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Button Label='Stop' Command='StopChanging' EnableProp=',,IsRunning' W='30' H='25'/&gt;</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>&lt;CheckBox Label='' Value='{CanChange}'/&gt;</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>{Last}</t>
+  </si>
+  <si>
+    <t>{R::Code}</t>
+  </si>
+  <si>
+    <t>{R::Name}</t>
+  </si>
+  <si>
+    <t>{R::Currency}</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>{R::Amount}</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Main' BindingWith='BasketManager' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Shares' BindingWith='Share'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='Shares'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='Shares' With='Basket.Shares'/&gt;</t>
+  </si>
+  <si>
+    <t>{Quantity}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +246,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +314,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -323,6 +406,56 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -470,7 +603,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -487,118 +620,136 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="102">
-    <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Comma 2 2" xfId="5"/>
-    <cellStyle name="Comma 3" xfId="6"/>
-    <cellStyle name="Comma 3 2" xfId="97"/>
-    <cellStyle name="Comma 4" xfId="3"/>
-    <cellStyle name="Comma 4 2" xfId="100"/>
-    <cellStyle name="Comma 5" xfId="96"/>
-    <cellStyle name="Euro" xfId="7"/>
-    <cellStyle name="Euro 2" xfId="8"/>
-    <cellStyle name="Euro 2 2" xfId="9"/>
-    <cellStyle name="Euro 2 3" xfId="10"/>
-    <cellStyle name="Euro 3" xfId="11"/>
-    <cellStyle name="Euro 3 2" xfId="12"/>
-    <cellStyle name="Euro 4" xfId="13"/>
-    <cellStyle name="Euro 4 2" xfId="14"/>
-    <cellStyle name="Euro 5" xfId="15"/>
-    <cellStyle name="header" xfId="95"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 4 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 5" xfId="96" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Euro" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Euro 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Euro 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Euro 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Euro 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Euro 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Euro 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Euro 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Euro 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="header" xfId="95" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="16"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2 2 2" xfId="17"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="18"/>
-    <cellStyle name="Normal 2 2 3" xfId="19"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="20"/>
-    <cellStyle name="Normal 2 2 4" xfId="21"/>
-    <cellStyle name="Normal 2 3" xfId="22"/>
-    <cellStyle name="Normal 2 3 2" xfId="23"/>
-    <cellStyle name="Normal 2 4" xfId="24"/>
-    <cellStyle name="Normal 2 4 2" xfId="25"/>
-    <cellStyle name="Normal 2 5" xfId="26"/>
-    <cellStyle name="Normal 2 6" xfId="94"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="90"/>
-    <cellStyle name="Normal 4" xfId="91"/>
-    <cellStyle name="Normal 4 2" xfId="99"/>
-    <cellStyle name="Normal 5" xfId="92"/>
-    <cellStyle name="Normal 5 2" xfId="93"/>
-    <cellStyle name="Percent 2" xfId="28"/>
-    <cellStyle name="Percent 2 2" xfId="29"/>
-    <cellStyle name="Percent 3" xfId="30"/>
-    <cellStyle name="Percent 3 2" xfId="98"/>
-    <cellStyle name="Percent 4" xfId="27"/>
-    <cellStyle name="Percent 4 2" xfId="101"/>
-    <cellStyle name="Standard_mat" xfId="31"/>
-    <cellStyle name="Style 1" xfId="32"/>
-    <cellStyle name="Style 1 2" xfId="33"/>
-    <cellStyle name="Style 1 2 2" xfId="34"/>
-    <cellStyle name="Style 1 3" xfId="35"/>
-    <cellStyle name="Style 1 3 2" xfId="36"/>
-    <cellStyle name="Style 1 4" xfId="37"/>
-    <cellStyle name="Style 1 4 2" xfId="38"/>
-    <cellStyle name="swpBody01" xfId="39"/>
-    <cellStyle name="swpBodyFirstCol" xfId="40"/>
-    <cellStyle name="swpCaption" xfId="41"/>
-    <cellStyle name="swpClear" xfId="42"/>
-    <cellStyle name="swpClear 2" xfId="43"/>
-    <cellStyle name="swpClear 2 2" xfId="44"/>
-    <cellStyle name="swpClear 2 3" xfId="45"/>
-    <cellStyle name="swpClear 3" xfId="46"/>
-    <cellStyle name="swpClear 3 2" xfId="47"/>
-    <cellStyle name="swpClear 4" xfId="48"/>
-    <cellStyle name="swpClear 4 2" xfId="49"/>
-    <cellStyle name="swpClear 5" xfId="50"/>
-    <cellStyle name="swpHBBookTitle" xfId="51"/>
-    <cellStyle name="swpHBChapterTitle" xfId="52"/>
-    <cellStyle name="swpHead01" xfId="53"/>
-    <cellStyle name="swpHead01R" xfId="54"/>
-    <cellStyle name="swpHead02" xfId="55"/>
-    <cellStyle name="swpHead02R" xfId="56"/>
-    <cellStyle name="swpHead03" xfId="57"/>
-    <cellStyle name="swpHead03R" xfId="58"/>
-    <cellStyle name="swpHeadBraL" xfId="59"/>
-    <cellStyle name="swpHeadBraL 2" xfId="60"/>
-    <cellStyle name="swpHeadBraL 2 2" xfId="61"/>
-    <cellStyle name="swpHeadBraL 2 3" xfId="62"/>
-    <cellStyle name="swpHeadBraL 3" xfId="63"/>
-    <cellStyle name="swpHeadBraL 3 2" xfId="64"/>
-    <cellStyle name="swpHeadBraL 4" xfId="65"/>
-    <cellStyle name="swpHeadBraL 4 2" xfId="66"/>
-    <cellStyle name="swpHeadBraL 5" xfId="67"/>
-    <cellStyle name="swpHeadBraM" xfId="68"/>
-    <cellStyle name="swpHeadBraM 2" xfId="69"/>
-    <cellStyle name="swpHeadBraM 2 2" xfId="70"/>
-    <cellStyle name="swpHeadBraM 2 3" xfId="71"/>
-    <cellStyle name="swpHeadBraM 3" xfId="72"/>
-    <cellStyle name="swpHeadBraM 3 2" xfId="73"/>
-    <cellStyle name="swpHeadBraM 4" xfId="74"/>
-    <cellStyle name="swpHeadBraM 4 2" xfId="75"/>
-    <cellStyle name="swpHeadBraM 5" xfId="76"/>
-    <cellStyle name="swpHeadBraR" xfId="77"/>
-    <cellStyle name="swpHeadBraR 2" xfId="78"/>
-    <cellStyle name="swpHeadBraR 2 2" xfId="79"/>
-    <cellStyle name="swpHeadBraR 2 3" xfId="80"/>
-    <cellStyle name="swpHeadBraR 3" xfId="81"/>
-    <cellStyle name="swpHeadBraR 3 2" xfId="82"/>
-    <cellStyle name="swpHeadBraR 4" xfId="83"/>
-    <cellStyle name="swpHeadBraR 4 2" xfId="84"/>
-    <cellStyle name="swpHeadBraR 5" xfId="85"/>
-    <cellStyle name="swpTag" xfId="86"/>
-    <cellStyle name="swpTotals" xfId="87"/>
-    <cellStyle name="swpTotalsNo" xfId="88"/>
-    <cellStyle name="swpTotalsTotal" xfId="89"/>
+    <cellStyle name="Normal 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 4 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Percent 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Percent 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Standard_mat" xfId="31" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Style 1" xfId="32" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Style 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Style 1 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Style 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Style 1 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Style 1 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Style 1 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="swpBody01" xfId="39" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="swpBodyFirstCol" xfId="40" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="swpCaption" xfId="41" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="swpClear" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="swpClear 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="swpClear 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="swpClear 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="swpClear 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="swpClear 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="swpClear 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="swpClear 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="swpClear 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="swpHBBookTitle" xfId="51" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="swpHBChapterTitle" xfId="52" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="swpHead01" xfId="53" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="swpHead01R" xfId="54" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="swpHead02" xfId="55" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="swpHead02R" xfId="56" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="swpHead03" xfId="57" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="swpHead03R" xfId="58" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="swpHeadBraL" xfId="59" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="swpHeadBraL 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="swpHeadBraL 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="swpHeadBraL 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="swpHeadBraL 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="swpHeadBraL 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="swpHeadBraL 4" xfId="65" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="swpHeadBraL 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="swpHeadBraL 5" xfId="67" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="swpHeadBraM" xfId="68" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="swpHeadBraM 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="swpHeadBraM 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="swpHeadBraM 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="swpHeadBraM 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="swpHeadBraM 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="swpHeadBraM 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="swpHeadBraM 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="swpHeadBraM 5" xfId="76" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="swpHeadBraR" xfId="77" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="swpHeadBraR 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="swpHeadBraR 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="swpHeadBraR 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="swpHeadBraR 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="swpHeadBraR 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="swpHeadBraR 4" xfId="83" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="swpHeadBraR 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="swpHeadBraR 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="swpTag" xfId="86" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="swpTotals" xfId="87" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="swpTotalsNo" xfId="88" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="swpTotalsTotal" xfId="89" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -881,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -896,11 +1047,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85459736-4C22-4533-A5FF-2A0C97A873C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
@@ -925,12 +1093,12 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -967,15 +1135,15 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -992,12 +1160,12 @@
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -1033,11 +1201,11 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>22</v>
@@ -1051,4 +1219,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05E18A9-BA11-4507-AADF-C81F90E5E556}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\ETK-Git\Demos\Etk.Demo.ExcelDna1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Shops" sheetId="7" r:id="rId1"/>
@@ -27,20 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>&lt;Template Name='Main' BindingWith='Shop'/&gt;</t>
   </si>
   <si>
-    <t>&lt;Header&gt;</t>
-  </si>
-  <si>
     <t>Shops</t>
   </si>
   <si>
-    <t>&lt;/Header&gt;</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -56,12 +45,6 @@
     <t>{Name}</t>
   </si>
   <si>
-    <t>{{{Address} {City}}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {Phone}</t>
-  </si>
-  <si>
     <t>&lt;Link To='CustomersMain' With='Customers'/&gt;</t>
   </si>
   <si>
@@ -131,9 +114,6 @@
     <t>Last</t>
   </si>
   <si>
-    <t>&lt;CheckBox Label='' Value='{CanChange}'/&gt;</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -171,18 +151,60 @@
   </si>
   <si>
     <t>{Quantity}</t>
+  </si>
+  <si>
+    <t>{CanChange}</t>
+  </si>
+  <si>
+    <t>{{{Address.Street} {Address.City}}}</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>{ReceptionPhone}</t>
+  </si>
+  <si>
+    <t>{R::Id}</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product Id</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Discount (%)</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>&lt;Header/&gt;</t>
+  </si>
+  <si>
+    <t>Custumer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +274,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,12 +304,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,8 +350,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -460,24 +520,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -596,160 +717,220 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="102">
-    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Comma 3 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Comma 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma 4 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Comma 5" xfId="96" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Euro" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Euro 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Euro 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Euro 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Euro 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Euro 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Euro 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Euro 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Euro 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="header" xfId="95" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 2 2" xfId="5"/>
+    <cellStyle name="Comma 3" xfId="6"/>
+    <cellStyle name="Comma 3 2" xfId="97"/>
+    <cellStyle name="Comma 4" xfId="3"/>
+    <cellStyle name="Comma 4 2" xfId="100"/>
+    <cellStyle name="Comma 5" xfId="96"/>
+    <cellStyle name="Euro" xfId="7"/>
+    <cellStyle name="Euro 2" xfId="8"/>
+    <cellStyle name="Euro 2 2" xfId="9"/>
+    <cellStyle name="Euro 2 3" xfId="10"/>
+    <cellStyle name="Euro 3" xfId="11"/>
+    <cellStyle name="Euro 3 2" xfId="12"/>
+    <cellStyle name="Euro 4" xfId="13"/>
+    <cellStyle name="Euro 4 2" xfId="14"/>
+    <cellStyle name="Euro 5" xfId="15"/>
+    <cellStyle name="header" xfId="95"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 4 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Percent 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Percent 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Percent 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Percent 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Percent 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Standard_mat" xfId="31" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Style 1" xfId="32" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Style 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Style 1 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Style 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Style 1 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Style 1 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Style 1 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="swpBody01" xfId="39" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="swpBodyFirstCol" xfId="40" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="swpCaption" xfId="41" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="swpClear" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="swpClear 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="swpClear 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="swpClear 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="swpClear 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="swpClear 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="swpClear 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="swpClear 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="swpClear 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="swpHBBookTitle" xfId="51" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="swpHBChapterTitle" xfId="52" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="swpHead01" xfId="53" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="swpHead01R" xfId="54" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="swpHead02" xfId="55" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="swpHead02R" xfId="56" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="swpHead03" xfId="57" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="swpHead03R" xfId="58" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="swpHeadBraL" xfId="59" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="swpHeadBraL 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="swpHeadBraL 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="swpHeadBraL 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="swpHeadBraL 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="swpHeadBraL 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="swpHeadBraL 4" xfId="65" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="swpHeadBraL 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="swpHeadBraL 5" xfId="67" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="swpHeadBraM" xfId="68" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="swpHeadBraM 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="swpHeadBraM 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="swpHeadBraM 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="swpHeadBraM 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="swpHeadBraM 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="swpHeadBraM 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="swpHeadBraM 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="swpHeadBraM 5" xfId="76" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="swpHeadBraR" xfId="77" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="swpHeadBraR 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="swpHeadBraR 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="swpHeadBraR 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="swpHeadBraR 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="swpHeadBraR 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="swpHeadBraR 4" xfId="83" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="swpHeadBraR 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="swpHeadBraR 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="swpTag" xfId="86" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="swpTotals" xfId="87" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="swpTotalsNo" xfId="88" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="swpTotalsTotal" xfId="89" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2" xfId="16"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2 2" xfId="17"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="18"/>
+    <cellStyle name="Normal 2 2 3" xfId="19"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="20"/>
+    <cellStyle name="Normal 2 2 4" xfId="21"/>
+    <cellStyle name="Normal 2 3" xfId="22"/>
+    <cellStyle name="Normal 2 3 2" xfId="23"/>
+    <cellStyle name="Normal 2 4" xfId="24"/>
+    <cellStyle name="Normal 2 4 2" xfId="25"/>
+    <cellStyle name="Normal 2 5" xfId="26"/>
+    <cellStyle name="Normal 2 6" xfId="94"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="90"/>
+    <cellStyle name="Normal 4" xfId="91"/>
+    <cellStyle name="Normal 4 2" xfId="99"/>
+    <cellStyle name="Normal 5" xfId="92"/>
+    <cellStyle name="Normal 5 2" xfId="93"/>
+    <cellStyle name="Percent 2" xfId="28"/>
+    <cellStyle name="Percent 2 2" xfId="29"/>
+    <cellStyle name="Percent 3" xfId="30"/>
+    <cellStyle name="Percent 3 2" xfId="98"/>
+    <cellStyle name="Percent 4" xfId="27"/>
+    <cellStyle name="Percent 4 2" xfId="101"/>
+    <cellStyle name="Standard_mat" xfId="31"/>
+    <cellStyle name="Style 1" xfId="32"/>
+    <cellStyle name="Style 1 2" xfId="33"/>
+    <cellStyle name="Style 1 2 2" xfId="34"/>
+    <cellStyle name="Style 1 3" xfId="35"/>
+    <cellStyle name="Style 1 3 2" xfId="36"/>
+    <cellStyle name="Style 1 4" xfId="37"/>
+    <cellStyle name="Style 1 4 2" xfId="38"/>
+    <cellStyle name="swpBody01" xfId="39"/>
+    <cellStyle name="swpBodyFirstCol" xfId="40"/>
+    <cellStyle name="swpCaption" xfId="41"/>
+    <cellStyle name="swpClear" xfId="42"/>
+    <cellStyle name="swpClear 2" xfId="43"/>
+    <cellStyle name="swpClear 2 2" xfId="44"/>
+    <cellStyle name="swpClear 2 3" xfId="45"/>
+    <cellStyle name="swpClear 3" xfId="46"/>
+    <cellStyle name="swpClear 3 2" xfId="47"/>
+    <cellStyle name="swpClear 4" xfId="48"/>
+    <cellStyle name="swpClear 4 2" xfId="49"/>
+    <cellStyle name="swpClear 5" xfId="50"/>
+    <cellStyle name="swpHBBookTitle" xfId="51"/>
+    <cellStyle name="swpHBChapterTitle" xfId="52"/>
+    <cellStyle name="swpHead01" xfId="53"/>
+    <cellStyle name="swpHead01R" xfId="54"/>
+    <cellStyle name="swpHead02" xfId="55"/>
+    <cellStyle name="swpHead02R" xfId="56"/>
+    <cellStyle name="swpHead03" xfId="57"/>
+    <cellStyle name="swpHead03R" xfId="58"/>
+    <cellStyle name="swpHeadBraL" xfId="59"/>
+    <cellStyle name="swpHeadBraL 2" xfId="60"/>
+    <cellStyle name="swpHeadBraL 2 2" xfId="61"/>
+    <cellStyle name="swpHeadBraL 2 3" xfId="62"/>
+    <cellStyle name="swpHeadBraL 3" xfId="63"/>
+    <cellStyle name="swpHeadBraL 3 2" xfId="64"/>
+    <cellStyle name="swpHeadBraL 4" xfId="65"/>
+    <cellStyle name="swpHeadBraL 4 2" xfId="66"/>
+    <cellStyle name="swpHeadBraL 5" xfId="67"/>
+    <cellStyle name="swpHeadBraM" xfId="68"/>
+    <cellStyle name="swpHeadBraM 2" xfId="69"/>
+    <cellStyle name="swpHeadBraM 2 2" xfId="70"/>
+    <cellStyle name="swpHeadBraM 2 3" xfId="71"/>
+    <cellStyle name="swpHeadBraM 3" xfId="72"/>
+    <cellStyle name="swpHeadBraM 3 2" xfId="73"/>
+    <cellStyle name="swpHeadBraM 4" xfId="74"/>
+    <cellStyle name="swpHeadBraM 4 2" xfId="75"/>
+    <cellStyle name="swpHeadBraM 5" xfId="76"/>
+    <cellStyle name="swpHeadBraR" xfId="77"/>
+    <cellStyle name="swpHeadBraR 2" xfId="78"/>
+    <cellStyle name="swpHeadBraR 2 2" xfId="79"/>
+    <cellStyle name="swpHeadBraR 2 3" xfId="80"/>
+    <cellStyle name="swpHeadBraR 3" xfId="81"/>
+    <cellStyle name="swpHeadBraR 3 2" xfId="82"/>
+    <cellStyle name="swpHeadBraR 4" xfId="83"/>
+    <cellStyle name="swpHeadBraR 4 2" xfId="84"/>
+    <cellStyle name="swpHeadBraR 5" xfId="85"/>
+    <cellStyle name="swpTag" xfId="86"/>
+    <cellStyle name="swpTotals" xfId="87"/>
+    <cellStyle name="swpTotalsNo" xfId="88"/>
+    <cellStyle name="swpTotalsTotal" xfId="89"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1025,19 +1206,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="30.42578125" style="1"/>
   </cols>
@@ -1047,14 +1228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85459736-4C22-4533-A5FF-2A0C97A873C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1064,157 +1245,209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="3" spans="1:9">
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2"/>
+      <c r="B12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
+      <c r="I13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>22</v>
+      <c r="C23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
+  <mergeCells count="5">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1222,14 +1455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05E18A9-BA11-4507-AADF-C81F90E5E556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
@@ -1242,102 +1475,107 @@
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
     </row>
+    <row r="2" spans="1:9">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>45</v>
+      <c r="I11" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\ETK-Git\Demos\Etk.Demo.ExcelDna1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
+    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shops" sheetId="7" r:id="rId1"/>
+    <sheet name="Customers" sheetId="7" r:id="rId1"/>
     <sheet name="Shares" sheetId="9" r:id="rId2"/>
-    <sheet name="TemplatesShops" sheetId="8" r:id="rId3"/>
+    <sheet name="TemplatesCustomers" sheetId="8" r:id="rId3"/>
     <sheet name="TemplatesShares" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -17,21 +22,12 @@
     <definedName name="DEC_EXEC">#REF!</definedName>
     <definedName name="DEC_STATUS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
-  <si>
-    <t>&lt;Template Name='Main' BindingWith='Shop'/&gt;</t>
-  </si>
-  <si>
-    <t>Shops</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -39,21 +35,9 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Reception Phone Number</t>
-  </si>
-  <si>
-    <t>{Name}</t>
-  </si>
-  <si>
-    <t>&lt;Link To='CustomersMain' With='Customers'/&gt;</t>
-  </si>
-  <si>
     <t>&lt;EndTemplate Name='Main'/&gt;</t>
   </si>
   <si>
-    <t>&lt;Template Name='CustomersMain' BindingWith='Customer' /&gt;</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
@@ -66,21 +50,9 @@
     <t>Surname</t>
   </si>
   <si>
-    <t>{Id}</t>
-  </si>
-  <si>
-    <t>{Forename}</t>
-  </si>
-  <si>
-    <t>{Surname}</t>
-  </si>
-  <si>
     <t>{{{Forename} {Surname}}}</t>
   </si>
   <si>
-    <t>&lt;EndTemplate Name='CustomersMain'/&gt;</t>
-  </si>
-  <si>
     <t>{IdPlus}</t>
   </si>
   <si>
@@ -96,18 +68,6 @@
     <t>Shares</t>
   </si>
   <si>
-    <t>&lt;Button Label='{CommandRunningLabel}' Command='StartStopChanging' W='30' H='25'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Button Label='Start' Command='StartChanging' EnableProp=',,IsNotRunning' W='30' H='25'/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Button Label='Stop' Command='StopChanging' EnableProp=',,IsRunning' W='30' H='25'/&gt;</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -153,18 +113,9 @@
     <t>{Quantity}</t>
   </si>
   <si>
-    <t>{CanChange}</t>
-  </si>
-  <si>
     <t>{{{Address.Street} {Address.City}}}</t>
   </si>
   <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>{ReceptionPhone}</t>
-  </si>
-  <si>
     <t>{R::Id}</t>
   </si>
   <si>
@@ -183,28 +134,91 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>Discount (%)</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>&lt;Header/&gt;</t>
   </si>
   <si>
-    <t>Custumer</t>
+    <t>&lt;Header&gt;</t>
+  </si>
+  <si>
+    <t>{?Search…?}</t>
+  </si>
+  <si>
+    <t>&lt;/Header&gt;</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>&lt;Footer/&gt;</t>
+  </si>
+  <si>
+    <t>{R::Forename}</t>
+  </si>
+  <si>
+    <t>{R::Surname}</t>
+  </si>
+  <si>
+    <t>{R::Date}</t>
+  </si>
+  <si>
+    <t>{R::Product.Id}</t>
+  </si>
+  <si>
+    <t>{R::Product.Name}</t>
+  </si>
+  <si>
+    <t>{R::Product.UnitPrice}</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='OrderLines'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='OrderLines' With='Lines' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='OrderLines' BindingWith='OrderLine' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Main' BindingWith='Customer'  HeaderAsExpander='SE' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='Orders' BindingWith='Order' HeaderAsExpander='SC'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='Orders'/&gt;</t>
+  </si>
+  <si>
+    <t>{Price}</t>
+  </si>
+  <si>
+    <t>&lt;Link To='Orders' With='Orders'/&gt;</t>
+  </si>
+  <si>
+    <t>{{Orders ({NumberOfOrders})}}</t>
+  </si>
+  <si>
+    <t>Rounded to Hundred</t>
+  </si>
+  <si>
+    <t>&lt;Button Label='{CommandRunningLabel}' Command='StartStopChanging' W='30' H='20'/&gt;</t>
+  </si>
+  <si>
+    <t>{F={{Round({Amount},-2)}}::AmountRoundedToHundred}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +296,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303336"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,30 +324,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,24 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,8 +370,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -521,64 +553,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -586,19 +588,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -717,220 +719,223 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="102">
-    <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Comma 2 2" xfId="5"/>
-    <cellStyle name="Comma 3" xfId="6"/>
-    <cellStyle name="Comma 3 2" xfId="97"/>
-    <cellStyle name="Comma 4" xfId="3"/>
-    <cellStyle name="Comma 4 2" xfId="100"/>
-    <cellStyle name="Comma 5" xfId="96"/>
-    <cellStyle name="Euro" xfId="7"/>
-    <cellStyle name="Euro 2" xfId="8"/>
-    <cellStyle name="Euro 2 2" xfId="9"/>
-    <cellStyle name="Euro 2 3" xfId="10"/>
-    <cellStyle name="Euro 3" xfId="11"/>
-    <cellStyle name="Euro 3 2" xfId="12"/>
-    <cellStyle name="Euro 4" xfId="13"/>
-    <cellStyle name="Euro 4 2" xfId="14"/>
-    <cellStyle name="Euro 5" xfId="15"/>
-    <cellStyle name="header" xfId="95"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 4 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 5" xfId="96" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Euro" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Euro 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Euro 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Euro 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Euro 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Euro 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Euro 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Euro 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Euro 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="header" xfId="95" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="16"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2 2 2" xfId="17"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="18"/>
-    <cellStyle name="Normal 2 2 3" xfId="19"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="20"/>
-    <cellStyle name="Normal 2 2 4" xfId="21"/>
-    <cellStyle name="Normal 2 3" xfId="22"/>
-    <cellStyle name="Normal 2 3 2" xfId="23"/>
-    <cellStyle name="Normal 2 4" xfId="24"/>
-    <cellStyle name="Normal 2 4 2" xfId="25"/>
-    <cellStyle name="Normal 2 5" xfId="26"/>
-    <cellStyle name="Normal 2 6" xfId="94"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="90"/>
-    <cellStyle name="Normal 4" xfId="91"/>
-    <cellStyle name="Normal 4 2" xfId="99"/>
-    <cellStyle name="Normal 5" xfId="92"/>
-    <cellStyle name="Normal 5 2" xfId="93"/>
-    <cellStyle name="Percent 2" xfId="28"/>
-    <cellStyle name="Percent 2 2" xfId="29"/>
-    <cellStyle name="Percent 3" xfId="30"/>
-    <cellStyle name="Percent 3 2" xfId="98"/>
-    <cellStyle name="Percent 4" xfId="27"/>
-    <cellStyle name="Percent 4 2" xfId="101"/>
-    <cellStyle name="Standard_mat" xfId="31"/>
-    <cellStyle name="Style 1" xfId="32"/>
-    <cellStyle name="Style 1 2" xfId="33"/>
-    <cellStyle name="Style 1 2 2" xfId="34"/>
-    <cellStyle name="Style 1 3" xfId="35"/>
-    <cellStyle name="Style 1 3 2" xfId="36"/>
-    <cellStyle name="Style 1 4" xfId="37"/>
-    <cellStyle name="Style 1 4 2" xfId="38"/>
-    <cellStyle name="swpBody01" xfId="39"/>
-    <cellStyle name="swpBodyFirstCol" xfId="40"/>
-    <cellStyle name="swpCaption" xfId="41"/>
-    <cellStyle name="swpClear" xfId="42"/>
-    <cellStyle name="swpClear 2" xfId="43"/>
-    <cellStyle name="swpClear 2 2" xfId="44"/>
-    <cellStyle name="swpClear 2 3" xfId="45"/>
-    <cellStyle name="swpClear 3" xfId="46"/>
-    <cellStyle name="swpClear 3 2" xfId="47"/>
-    <cellStyle name="swpClear 4" xfId="48"/>
-    <cellStyle name="swpClear 4 2" xfId="49"/>
-    <cellStyle name="swpClear 5" xfId="50"/>
-    <cellStyle name="swpHBBookTitle" xfId="51"/>
-    <cellStyle name="swpHBChapterTitle" xfId="52"/>
-    <cellStyle name="swpHead01" xfId="53"/>
-    <cellStyle name="swpHead01R" xfId="54"/>
-    <cellStyle name="swpHead02" xfId="55"/>
-    <cellStyle name="swpHead02R" xfId="56"/>
-    <cellStyle name="swpHead03" xfId="57"/>
-    <cellStyle name="swpHead03R" xfId="58"/>
-    <cellStyle name="swpHeadBraL" xfId="59"/>
-    <cellStyle name="swpHeadBraL 2" xfId="60"/>
-    <cellStyle name="swpHeadBraL 2 2" xfId="61"/>
-    <cellStyle name="swpHeadBraL 2 3" xfId="62"/>
-    <cellStyle name="swpHeadBraL 3" xfId="63"/>
-    <cellStyle name="swpHeadBraL 3 2" xfId="64"/>
-    <cellStyle name="swpHeadBraL 4" xfId="65"/>
-    <cellStyle name="swpHeadBraL 4 2" xfId="66"/>
-    <cellStyle name="swpHeadBraL 5" xfId="67"/>
-    <cellStyle name="swpHeadBraM" xfId="68"/>
-    <cellStyle name="swpHeadBraM 2" xfId="69"/>
-    <cellStyle name="swpHeadBraM 2 2" xfId="70"/>
-    <cellStyle name="swpHeadBraM 2 3" xfId="71"/>
-    <cellStyle name="swpHeadBraM 3" xfId="72"/>
-    <cellStyle name="swpHeadBraM 3 2" xfId="73"/>
-    <cellStyle name="swpHeadBraM 4" xfId="74"/>
-    <cellStyle name="swpHeadBraM 4 2" xfId="75"/>
-    <cellStyle name="swpHeadBraM 5" xfId="76"/>
-    <cellStyle name="swpHeadBraR" xfId="77"/>
-    <cellStyle name="swpHeadBraR 2" xfId="78"/>
-    <cellStyle name="swpHeadBraR 2 2" xfId="79"/>
-    <cellStyle name="swpHeadBraR 2 3" xfId="80"/>
-    <cellStyle name="swpHeadBraR 3" xfId="81"/>
-    <cellStyle name="swpHeadBraR 3 2" xfId="82"/>
-    <cellStyle name="swpHeadBraR 4" xfId="83"/>
-    <cellStyle name="swpHeadBraR 4 2" xfId="84"/>
-    <cellStyle name="swpHeadBraR 5" xfId="85"/>
-    <cellStyle name="swpTag" xfId="86"/>
-    <cellStyle name="swpTotals" xfId="87"/>
-    <cellStyle name="swpTotalsNo" xfId="88"/>
-    <cellStyle name="swpTotalsTotal" xfId="89"/>
+    <cellStyle name="Normal 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 4 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Percent 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Percent 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Standard_mat" xfId="31" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Style 1" xfId="32" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Style 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Style 1 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Style 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Style 1 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Style 1 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Style 1 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="swpBody01" xfId="39" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="swpBodyFirstCol" xfId="40" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="swpCaption" xfId="41" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="swpClear" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="swpClear 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="swpClear 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="swpClear 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="swpClear 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="swpClear 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="swpClear 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="swpClear 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="swpClear 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="swpHBBookTitle" xfId="51" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="swpHBChapterTitle" xfId="52" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="swpHead01" xfId="53" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="swpHead01R" xfId="54" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="swpHead02" xfId="55" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="swpHead02R" xfId="56" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="swpHead03" xfId="57" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="swpHead03R" xfId="58" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="swpHeadBraL" xfId="59" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="swpHeadBraL 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="swpHeadBraL 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="swpHeadBraL 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="swpHeadBraL 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="swpHeadBraL 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="swpHeadBraL 4" xfId="65" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="swpHeadBraL 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="swpHeadBraL 5" xfId="67" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="swpHeadBraM" xfId="68" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="swpHeadBraM 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="swpHeadBraM 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="swpHeadBraM 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="swpHeadBraM 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="swpHeadBraM 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="swpHeadBraM 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="swpHeadBraM 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="swpHeadBraM 5" xfId="76" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="swpHeadBraR" xfId="77" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="swpHeadBraR 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="swpHeadBraR 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="swpHeadBraR 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="swpHeadBraR 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="swpHeadBraR 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="swpHeadBraR 4" xfId="83" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="swpHeadBraR 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="swpHeadBraR 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="swpTag" xfId="86" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="swpTotals" xfId="87" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="swpTotalsNo" xfId="88" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="swpTotalsTotal" xfId="89" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1206,19 +1211,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="30.42578125" style="1"/>
   </cols>
@@ -1228,14 +1234,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1245,14 +1252,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
@@ -1262,207 +1270,288 @@
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" t="s">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="F6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="29" t="s">
+      <c r="N7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5"/>
+      <c r="B13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="G14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5"/>
+      <c r="B16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22" t="s">
+      <c r="C16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="E16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="J26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" t="s">
+      <c r="J27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>54</v>
-      </c>
+    <row r="43" spans="6:6">
+      <c r="F43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="G5:M5"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{8A96A046-FABE-48F3-A897-F7362F43ED15}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3ArrowsGray" iconId="0"/>
+              <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
@@ -1470,117 +1559,113 @@
     <col min="4" max="4" width="88.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B4" s="40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>40</v>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\ETK-Git\Demos\Etk.Demo.ExcelDna1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="7" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <definedName name="DEC_EXEC">#REF!</definedName>
     <definedName name="DEC_STATUS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -207,16 +202,19 @@
   </si>
   <si>
     <t>{F={{Round({Amount},-2)}}::AmountRoundedToHundred}</t>
+  </si>
+  <si>
+    <t>{AmountRoundedToHundred}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -588,19 +586,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -719,14 +717,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -793,6 +791,10 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,108 +836,108 @@
     </xf>
   </cellXfs>
   <cellStyles count="102">
-    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Comma 3 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Comma 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma 4 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Comma 5" xfId="96" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Euro" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Euro 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Euro 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Euro 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Euro 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Euro 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Euro 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Euro 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Euro 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="header" xfId="95" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 2 2" xfId="5"/>
+    <cellStyle name="Comma 3" xfId="6"/>
+    <cellStyle name="Comma 3 2" xfId="97"/>
+    <cellStyle name="Comma 4" xfId="3"/>
+    <cellStyle name="Comma 4 2" xfId="100"/>
+    <cellStyle name="Comma 5" xfId="96"/>
+    <cellStyle name="Euro" xfId="7"/>
+    <cellStyle name="Euro 2" xfId="8"/>
+    <cellStyle name="Euro 2 2" xfId="9"/>
+    <cellStyle name="Euro 2 3" xfId="10"/>
+    <cellStyle name="Euro 3" xfId="11"/>
+    <cellStyle name="Euro 3 2" xfId="12"/>
+    <cellStyle name="Euro 4" xfId="13"/>
+    <cellStyle name="Euro 4 2" xfId="14"/>
+    <cellStyle name="Euro 5" xfId="15"/>
+    <cellStyle name="header" xfId="95"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 4 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Percent 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Percent 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Percent 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Percent 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Percent 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Standard_mat" xfId="31" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Style 1" xfId="32" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Style 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Style 1 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Style 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Style 1 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Style 1 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Style 1 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="swpBody01" xfId="39" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="swpBodyFirstCol" xfId="40" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="swpCaption" xfId="41" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="swpClear" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="swpClear 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="swpClear 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="swpClear 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="swpClear 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="swpClear 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="swpClear 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="swpClear 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="swpClear 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="swpHBBookTitle" xfId="51" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="swpHBChapterTitle" xfId="52" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="swpHead01" xfId="53" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="swpHead01R" xfId="54" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="swpHead02" xfId="55" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="swpHead02R" xfId="56" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="swpHead03" xfId="57" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="swpHead03R" xfId="58" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="swpHeadBraL" xfId="59" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="swpHeadBraL 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="swpHeadBraL 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="swpHeadBraL 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="swpHeadBraL 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="swpHeadBraL 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="swpHeadBraL 4" xfId="65" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="swpHeadBraL 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="swpHeadBraL 5" xfId="67" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="swpHeadBraM" xfId="68" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="swpHeadBraM 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="swpHeadBraM 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="swpHeadBraM 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="swpHeadBraM 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="swpHeadBraM 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="swpHeadBraM 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="swpHeadBraM 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="swpHeadBraM 5" xfId="76" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="swpHeadBraR" xfId="77" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="swpHeadBraR 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="swpHeadBraR 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="swpHeadBraR 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="swpHeadBraR 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="swpHeadBraR 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="swpHeadBraR 4" xfId="83" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="swpHeadBraR 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="swpHeadBraR 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="swpTag" xfId="86" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="swpTotals" xfId="87" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="swpTotalsNo" xfId="88" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="swpTotalsTotal" xfId="89" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2" xfId="16"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2 2" xfId="17"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="18"/>
+    <cellStyle name="Normal 2 2 3" xfId="19"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="20"/>
+    <cellStyle name="Normal 2 2 4" xfId="21"/>
+    <cellStyle name="Normal 2 3" xfId="22"/>
+    <cellStyle name="Normal 2 3 2" xfId="23"/>
+    <cellStyle name="Normal 2 4" xfId="24"/>
+    <cellStyle name="Normal 2 4 2" xfId="25"/>
+    <cellStyle name="Normal 2 5" xfId="26"/>
+    <cellStyle name="Normal 2 6" xfId="94"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="90"/>
+    <cellStyle name="Normal 4" xfId="91"/>
+    <cellStyle name="Normal 4 2" xfId="99"/>
+    <cellStyle name="Normal 5" xfId="92"/>
+    <cellStyle name="Normal 5 2" xfId="93"/>
+    <cellStyle name="Percent 2" xfId="28"/>
+    <cellStyle name="Percent 2 2" xfId="29"/>
+    <cellStyle name="Percent 3" xfId="30"/>
+    <cellStyle name="Percent 3 2" xfId="98"/>
+    <cellStyle name="Percent 4" xfId="27"/>
+    <cellStyle name="Percent 4 2" xfId="101"/>
+    <cellStyle name="Standard_mat" xfId="31"/>
+    <cellStyle name="Style 1" xfId="32"/>
+    <cellStyle name="Style 1 2" xfId="33"/>
+    <cellStyle name="Style 1 2 2" xfId="34"/>
+    <cellStyle name="Style 1 3" xfId="35"/>
+    <cellStyle name="Style 1 3 2" xfId="36"/>
+    <cellStyle name="Style 1 4" xfId="37"/>
+    <cellStyle name="Style 1 4 2" xfId="38"/>
+    <cellStyle name="swpBody01" xfId="39"/>
+    <cellStyle name="swpBodyFirstCol" xfId="40"/>
+    <cellStyle name="swpCaption" xfId="41"/>
+    <cellStyle name="swpClear" xfId="42"/>
+    <cellStyle name="swpClear 2" xfId="43"/>
+    <cellStyle name="swpClear 2 2" xfId="44"/>
+    <cellStyle name="swpClear 2 3" xfId="45"/>
+    <cellStyle name="swpClear 3" xfId="46"/>
+    <cellStyle name="swpClear 3 2" xfId="47"/>
+    <cellStyle name="swpClear 4" xfId="48"/>
+    <cellStyle name="swpClear 4 2" xfId="49"/>
+    <cellStyle name="swpClear 5" xfId="50"/>
+    <cellStyle name="swpHBBookTitle" xfId="51"/>
+    <cellStyle name="swpHBChapterTitle" xfId="52"/>
+    <cellStyle name="swpHead01" xfId="53"/>
+    <cellStyle name="swpHead01R" xfId="54"/>
+    <cellStyle name="swpHead02" xfId="55"/>
+    <cellStyle name="swpHead02R" xfId="56"/>
+    <cellStyle name="swpHead03" xfId="57"/>
+    <cellStyle name="swpHead03R" xfId="58"/>
+    <cellStyle name="swpHeadBraL" xfId="59"/>
+    <cellStyle name="swpHeadBraL 2" xfId="60"/>
+    <cellStyle name="swpHeadBraL 2 2" xfId="61"/>
+    <cellStyle name="swpHeadBraL 2 3" xfId="62"/>
+    <cellStyle name="swpHeadBraL 3" xfId="63"/>
+    <cellStyle name="swpHeadBraL 3 2" xfId="64"/>
+    <cellStyle name="swpHeadBraL 4" xfId="65"/>
+    <cellStyle name="swpHeadBraL 4 2" xfId="66"/>
+    <cellStyle name="swpHeadBraL 5" xfId="67"/>
+    <cellStyle name="swpHeadBraM" xfId="68"/>
+    <cellStyle name="swpHeadBraM 2" xfId="69"/>
+    <cellStyle name="swpHeadBraM 2 2" xfId="70"/>
+    <cellStyle name="swpHeadBraM 2 3" xfId="71"/>
+    <cellStyle name="swpHeadBraM 3" xfId="72"/>
+    <cellStyle name="swpHeadBraM 3 2" xfId="73"/>
+    <cellStyle name="swpHeadBraM 4" xfId="74"/>
+    <cellStyle name="swpHeadBraM 4 2" xfId="75"/>
+    <cellStyle name="swpHeadBraM 5" xfId="76"/>
+    <cellStyle name="swpHeadBraR" xfId="77"/>
+    <cellStyle name="swpHeadBraR 2" xfId="78"/>
+    <cellStyle name="swpHeadBraR 2 2" xfId="79"/>
+    <cellStyle name="swpHeadBraR 2 3" xfId="80"/>
+    <cellStyle name="swpHeadBraR 3" xfId="81"/>
+    <cellStyle name="swpHeadBraR 3 2" xfId="82"/>
+    <cellStyle name="swpHeadBraR 4" xfId="83"/>
+    <cellStyle name="swpHeadBraR 4 2" xfId="84"/>
+    <cellStyle name="swpHeadBraR 5" xfId="85"/>
+    <cellStyle name="swpTag" xfId="86"/>
+    <cellStyle name="swpTotals" xfId="87"/>
+    <cellStyle name="swpTotalsNo" xfId="88"/>
+    <cellStyle name="swpTotalsTotal" xfId="89"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,20 +1213,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="30.42578125" style="1"/>
   </cols>
@@ -1234,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1242,7 +1244,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1252,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:N43"/>
   <sheetViews>
@@ -1260,7 +1262,7 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
@@ -1288,41 +1290,41 @@
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="22" t="s">
@@ -1340,17 +1342,17 @@
       <c r="F6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="20" t="s">
@@ -1543,15 +1545,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
@@ -1563,19 +1565,19 @@
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1583,19 +1585,21 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B5" s="37" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1617,16 +1621,17 @@
       <c r="H6" s="27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1641,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1649,16 +1654,19 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\ETK-Git\Demos\Etk.Demo.ExcelDna1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
@@ -210,11 +215,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -586,19 +591,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -717,11 +722,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
@@ -1213,20 +1218,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="30.42578125" style="1"/>
   </cols>
@@ -1236,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1244,7 +1249,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1254,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:N43"/>
   <sheetViews>
@@ -1262,7 +1267,7 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
@@ -1545,17 +1550,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.140625" bestFit="1" customWidth="1"/>

--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\ETK-Git\Demos\Etk.Demo.ExcelDna1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
+    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="7" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <definedName name="DEC_EXEC">#REF!</definedName>
     <definedName name="DEC_STATUS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" calcOnSave="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -210,16 +205,22 @@
   </si>
   <si>
     <t>{AmountRoundedToHundred}</t>
+  </si>
+  <si>
+    <t>[SH_COL_H=2::Test_2]</t>
+  </si>
+  <si>
+    <t>[SH_COL_H=1::Test_1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -591,19 +592,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -722,14 +723,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -800,6 +801,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,6 +822,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,6 +847,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,20 +1234,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="30.42578125" style="1"/>
   </cols>
@@ -1241,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1249,7 +1265,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1259,15 +1275,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
@@ -1295,228 +1311,247 @@
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="32" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="22" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G7" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="20" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="F10" s="23"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="G14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="5" t="s">
+      <c r="G15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5"/>
+      <c r="B17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="26" spans="8:10">
-      <c r="J26" s="3" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="J27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="8:10">
-      <c r="H27" s="3" t="s">
+    <row r="28" spans="1:10">
+      <c r="H28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="26"/>
+    <row r="44" spans="6:6">
+      <c r="F44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1541,7 +1576,7 @@
               <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B12</xm:sqref>
+          <xm:sqref>B13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1550,7 +1585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1558,7 +1593,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
@@ -1579,10 +1614,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1593,15 +1628,15 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10">

--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Lines</t>
   </si>
   <si>
-    <t>&lt;Footer/&gt;</t>
-  </si>
-  <si>
     <t>{R::Forename}</t>
   </si>
   <si>
@@ -211,6 +208,27 @@
   </si>
   <si>
     <t>[SH_COL_H=1::Test_1]</t>
+  </si>
+  <si>
+    <t>Vertical templates</t>
+  </si>
+  <si>
+    <t>Horizontal templates</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='MainHorizontal' Orientation='H' BindingWith='Customer'  HeaderAsExpander='SE' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='MainHorizontal'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='OrdersHorizontal' With='Orders'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Template Name='OrdersHorizontal' Orientation='H' BindingWith='Order' HeaderAsExpander='SC'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EndTemplate Name='OrdersHorizontal'/&gt;</t>
   </si>
 </sst>
 </file>
@@ -222,7 +240,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,12 +317,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303336"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="20">
@@ -423,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -585,6 +597,175 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -730,7 +911,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -793,7 +974,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,39 +981,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,11 +1005,78 @@
     <xf numFmtId="49" fontId="10" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="102">
@@ -1234,7 +1457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1245,7 +1468,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
   <cols>
@@ -1277,28 +1500,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1306,103 +1544,115 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+      <c r="S3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="42"/>
+      <c r="Q4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="34" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="22" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>7</v>
@@ -1411,23 +1661,21 @@
         <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:19">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="14" t="s">
-        <v>41</v>
-      </c>
+    <row r="10" spans="1:19">
+      <c r="A10" s="14"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1435,12 +1683,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:19">
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1448,7 +1696,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1474,28 +1722,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="G15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1504,50 +1752,146 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:14">
       <c r="A17" s="5"/>
       <c r="B17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="J27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="26"/>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A32" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="B33" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="57"/>
+      <c r="C34" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="57"/>
+      <c r="C35" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="60"/>
+      <c r="C42" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="60"/>
+      <c r="C43" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B44" s="61"/>
+      <c r="C44" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="G6:M6"/>
@@ -1614,12 +1958,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1628,15 +1972,15 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10">
@@ -1658,8 +2002,8 @@
       <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>57</v>
+      <c r="H6" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1694,17 +2038,17 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>59</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>60</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>25</v>

--- a/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
+++ b/Demos/Etk.Demo.ExcelDna1/Etk.Demo.ExcelDna1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk\ETK-Git\Demos\Etk.Demo.ExcelDna1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4335C5-E608-40EF-B332-350DD406F831}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040"/>
+    <workbookView xWindow="1380" yWindow="3330" windowWidth="15360" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="7" r:id="rId1"/>
@@ -234,11 +240,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -435,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -763,6 +769,96 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -773,19 +869,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -904,14 +1000,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -962,9 +1058,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,66 +1074,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,16 +1092,16 @@
     <xf numFmtId="49" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1078,110 +1120,191 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="102">
-    <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Comma 2 2" xfId="5"/>
-    <cellStyle name="Comma 3" xfId="6"/>
-    <cellStyle name="Comma 3 2" xfId="97"/>
-    <cellStyle name="Comma 4" xfId="3"/>
-    <cellStyle name="Comma 4 2" xfId="100"/>
-    <cellStyle name="Comma 5" xfId="96"/>
-    <cellStyle name="Euro" xfId="7"/>
-    <cellStyle name="Euro 2" xfId="8"/>
-    <cellStyle name="Euro 2 2" xfId="9"/>
-    <cellStyle name="Euro 2 3" xfId="10"/>
-    <cellStyle name="Euro 3" xfId="11"/>
-    <cellStyle name="Euro 3 2" xfId="12"/>
-    <cellStyle name="Euro 4" xfId="13"/>
-    <cellStyle name="Euro 4 2" xfId="14"/>
-    <cellStyle name="Euro 5" xfId="15"/>
-    <cellStyle name="header" xfId="95"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 4 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 5" xfId="96" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Euro" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Euro 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Euro 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Euro 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Euro 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Euro 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Euro 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Euro 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Euro 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="header" xfId="95" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="16"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2 2 2" xfId="17"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="18"/>
-    <cellStyle name="Normal 2 2 3" xfId="19"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="20"/>
-    <cellStyle name="Normal 2 2 4" xfId="21"/>
-    <cellStyle name="Normal 2 3" xfId="22"/>
-    <cellStyle name="Normal 2 3 2" xfId="23"/>
-    <cellStyle name="Normal 2 4" xfId="24"/>
-    <cellStyle name="Normal 2 4 2" xfId="25"/>
-    <cellStyle name="Normal 2 5" xfId="26"/>
-    <cellStyle name="Normal 2 6" xfId="94"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="90"/>
-    <cellStyle name="Normal 4" xfId="91"/>
-    <cellStyle name="Normal 4 2" xfId="99"/>
-    <cellStyle name="Normal 5" xfId="92"/>
-    <cellStyle name="Normal 5 2" xfId="93"/>
-    <cellStyle name="Percent 2" xfId="28"/>
-    <cellStyle name="Percent 2 2" xfId="29"/>
-    <cellStyle name="Percent 3" xfId="30"/>
-    <cellStyle name="Percent 3 2" xfId="98"/>
-    <cellStyle name="Percent 4" xfId="27"/>
-    <cellStyle name="Percent 4 2" xfId="101"/>
-    <cellStyle name="Standard_mat" xfId="31"/>
-    <cellStyle name="Style 1" xfId="32"/>
-    <cellStyle name="Style 1 2" xfId="33"/>
-    <cellStyle name="Style 1 2 2" xfId="34"/>
-    <cellStyle name="Style 1 3" xfId="35"/>
-    <cellStyle name="Style 1 3 2" xfId="36"/>
-    <cellStyle name="Style 1 4" xfId="37"/>
-    <cellStyle name="Style 1 4 2" xfId="38"/>
-    <cellStyle name="swpBody01" xfId="39"/>
-    <cellStyle name="swpBodyFirstCol" xfId="40"/>
-    <cellStyle name="swpCaption" xfId="41"/>
-    <cellStyle name="swpClear" xfId="42"/>
-    <cellStyle name="swpClear 2" xfId="43"/>
-    <cellStyle name="swpClear 2 2" xfId="44"/>
-    <cellStyle name="swpClear 2 3" xfId="45"/>
-    <cellStyle name="swpClear 3" xfId="46"/>
-    <cellStyle name="swpClear 3 2" xfId="47"/>
-    <cellStyle name="swpClear 4" xfId="48"/>
-    <cellStyle name="swpClear 4 2" xfId="49"/>
-    <cellStyle name="swpClear 5" xfId="50"/>
-    <cellStyle name="swpHBBookTitle" xfId="51"/>
-    <cellStyle name="swpHBChapterTitle" xfId="52"/>
-    <cellStyle name="swpHead01" xfId="53"/>
-    <cellStyle name="swpHead01R" xfId="54"/>
-    <cellStyle name="swpHead02" xfId="55"/>
-    <cellStyle name="swpHead02R" xfId="56"/>
-    <cellStyle name="swpHead03" xfId="57"/>
-    <cellStyle name="swpHead03R" xfId="58"/>
-    <cellStyle name="swpHeadBraL" xfId="59"/>
-    <cellStyle name="swpHeadBraL 2" xfId="60"/>
-    <cellStyle name="swpHeadBraL 2 2" xfId="61"/>
-    <cellStyle name="swpHeadBraL 2 3" xfId="62"/>
-    <cellStyle name="swpHeadBraL 3" xfId="63"/>
-    <cellStyle name="swpHeadBraL 3 2" xfId="64"/>
-    <cellStyle name="swpHeadBraL 4" xfId="65"/>
-    <cellStyle name="swpHeadBraL 4 2" xfId="66"/>
-    <cellStyle name="swpHeadBraL 5" xfId="67"/>
-    <cellStyle name="swpHeadBraM" xfId="68"/>
-    <cellStyle name="swpHeadBraM 2" xfId="69"/>
-    <cellStyle name="swpHeadBraM 2 2" xfId="70"/>
-    <cellStyle name="swpHeadBraM 2 3" xfId="71"/>
-    <cellStyle name="swpHeadBraM 3" xfId="72"/>
-    <cellStyle name="swpHeadBraM 3 2" xfId="73"/>
-    <cellStyle name="swpHeadBraM 4" xfId="74"/>
-    <cellStyle name="swpHeadBraM 4 2" xfId="75"/>
-    <cellStyle name="swpHeadBraM 5" xfId="76"/>
-    <cellStyle name="swpHeadBraR" xfId="77"/>
-    <cellStyle name="swpHeadBraR 2" xfId="78"/>
-    <cellStyle name="swpHeadBraR 2 2" xfId="79"/>
-    <cellStyle name="swpHeadBraR 2 3" xfId="80"/>
-    <cellStyle name="swpHeadBraR 3" xfId="81"/>
-    <cellStyle name="swpHeadBraR 3 2" xfId="82"/>
-    <cellStyle name="swpHeadBraR 4" xfId="83"/>
-    <cellStyle name="swpHeadBraR 4 2" xfId="84"/>
-    <cellStyle name="swpHeadBraR 5" xfId="85"/>
-    <cellStyle name="swpTag" xfId="86"/>
-    <cellStyle name="swpTotals" xfId="87"/>
-    <cellStyle name="swpTotalsNo" xfId="88"/>
-    <cellStyle name="swpTotalsTotal" xfId="89"/>
+    <cellStyle name="Normal 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 4 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Percent 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Percent 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Standard_mat" xfId="31" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Style 1" xfId="32" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Style 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Style 1 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Style 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Style 1 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Style 1 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Style 1 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="swpBody01" xfId="39" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="swpBodyFirstCol" xfId="40" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="swpCaption" xfId="41" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="swpClear" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="swpClear 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="swpClear 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="swpClear 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="swpClear 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="swpClear 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="swpClear 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="swpClear 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="swpClear 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="swpHBBookTitle" xfId="51" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="swpHBChapterTitle" xfId="52" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="swpHead01" xfId="53" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="swpHead01R" xfId="54" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="swpHead02" xfId="55" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="swpHead02R" xfId="56" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="swpHead03" xfId="57" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="swpHead03R" xfId="58" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="swpHeadBraL" xfId="59" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="swpHeadBraL 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="swpHeadBraL 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="swpHeadBraL 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="swpHeadBraL 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="swpHeadBraL 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="swpHeadBraL 4" xfId="65" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="swpHeadBraL 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="swpHeadBraL 5" xfId="67" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="swpHeadBraM" xfId="68" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="swpHeadBraM 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="swpHeadBraM 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="swpHeadBraM 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="swpHeadBraM 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="swpHeadBraM 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="swpHeadBraM 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="swpHeadBraM 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="swpHeadBraM 5" xfId="76" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="swpHeadBraR" xfId="77" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="swpHeadBraR 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="swpHeadBraR 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="swpHeadBraR 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="swpHeadBraR 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="swpHeadBraR 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="swpHeadBraR 4" xfId="83" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="swpHeadBraR 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="swpHeadBraR 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="swpTag" xfId="86" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="swpTotals" xfId="87" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="swpTotalsNo" xfId="88" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="swpTotalsTotal" xfId="89" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1457,20 +1580,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="30.42578125" style="1"/>
   </cols>
@@ -1480,7 +1603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1488,7 +1611,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1498,15 +1621,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="99.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1516,387 +1639,391 @@
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="S3" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="S5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="42"/>
-      <c r="Q4" s="3" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="Q6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="49" t="s">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="50" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="51"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="2" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B8" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="46" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="B7" s="37" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G9" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="20" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
     <row r="11" spans="1:19">
-      <c r="F11" s="23"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="14"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="5" t="s">
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="5"/>
-      <c r="B14" s="15" t="s">
+    <row r="16" spans="1:19">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="G15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:14">
+      <c r="G17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="5"/>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="5"/>
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A29" s="52" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A31" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A32" s="55" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A34" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="B33" s="56" t="s">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="B35" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C35" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D35" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="B34" s="57"/>
-      <c r="C34" s="22" t="s">
+    <row r="36" spans="1:6">
+      <c r="B36" s="39"/>
+      <c r="C36" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D36" s="69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="B35" s="57"/>
-      <c r="C35" s="29" t="s">
+    <row r="37" spans="1:6">
+      <c r="B37" s="39"/>
+      <c r="C37" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D37" s="69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="29" t="s">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B38" s="40"/>
+      <c r="C38" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D38" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F38" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A40" t="s">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="59" t="s">
+    <row r="43" spans="1:6">
+      <c r="B43" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C43" s="64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="60"/>
-      <c r="C42" s="15" t="s">
+    <row r="44" spans="1:6">
+      <c r="B44" s="42"/>
+      <c r="C44" s="65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="60"/>
-      <c r="C43" s="9" t="s">
+    <row r="45" spans="1:6">
+      <c r="B45" s="42"/>
+      <c r="C45" s="66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B44" s="61"/>
-      <c r="C44" s="16" t="s">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B46" s="43"/>
+      <c r="C46" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1920,7 +2047,7 @@
               <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B13</xm:sqref>
+          <xm:sqref>B15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1929,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1937,7 +2064,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
@@ -1958,10 +2085,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1972,15 +2099,15 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10">
@@ -2002,7 +2129,7 @@
       <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="1"/>
@@ -2038,16 +2165,16 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="5" t="s">
